--- a/examples/integration-harness/src/main/resources/data/global-multi-asset/global_master.xlsx
+++ b/examples/integration-harness/src/main/resources/data/global-multi-asset/global_master.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,6 +898,242 @@
         <v>0.2</v>
       </c>
       <c r="Z4" t="inlineStr">
+        <is>
+          <t>Positions</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TRD-DEMO1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LEG-DEMO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ALLOC-DEMO1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DEMO-PORT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ISIN-DEMO1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GLOBAL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GMK-APAC</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>25-Aug-2024</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>27-Aug-2024</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="M5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>99500</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R5" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>BOOKED</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>AFFIRMED</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>DemoCounterparty</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>DemoBroker</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>GLOBAL-DEMO</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>MATCH-CONFIRMED</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TRD-DEMO2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LEG-DEMO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ALLOC-DEMO2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DEMO-PORT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ISIN-DEMO2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>GMK-APAC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>21-Aug-2024</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>23-Aug-2024</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="M6" t="n">
+        <v>260000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>259600</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R6" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>BOOKED</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>AFFIRMED</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>PrimeAPAC</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>BrokerAPAC</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>GLOBAL-DEMO</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Positions</t>
         </is>
